--- a/biology/Virologie/Alloherpesviridae/Alloherpesviridae.xlsx
+++ b/biology/Virologie/Alloherpesviridae/Alloherpesviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alloherpesviridae est une famille de virus appartenant à l'ordre des Herpesvirales. Cette famille comprend des espèces qui infectent les poissons et les amphibiens. Cette famille peut être divisée en deux clades: l'un composé de virus ayant pour hôtes les cyprinidés (poisson d'eau douce) et anguillidés (poissons serpentiformes) et l'autre de virus ayant pour hôtes les ictaluridés (poissons-chats), salmonidés (saumons), acipenseridés (esturgeons) et ranidés[1]. Il existe actuellement 13 espèces dans cette famille, réparties en quatre genres. Cette famille provoque notamment la maladie du poisson-chat[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alloherpesviridae est une famille de virus appartenant à l'ordre des Herpesvirales. Cette famille comprend des espèces qui infectent les poissons et les amphibiens. Cette famille peut être divisée en deux clades: l'un composé de virus ayant pour hôtes les cyprinidés (poisson d'eau douce) et anguillidés (poissons serpentiformes) et l'autre de virus ayant pour hôtes les ictaluridés (poissons-chats), salmonidés (saumons), acipenseridés (esturgeons) et ranidés. Il existe actuellement 13 espèces dans cette famille, réparties en quatre genres. Cette famille provoque notamment la maladie du poisson-chat,.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Alloherpesviridae a été établie en tant que famille en 2005.
-Genres
-Cette famille contient les quatre genres suivants[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alloherpesviridae a été établie en tant que famille en 2005.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alloherpesviridae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alloherpesviridae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette famille contient les quatre genres suivants:
 Batrachovirus
 Cyprinivirus
 Ictalurivirus
